--- a/players_stats/Jermaine Taylor.xlsx
+++ b/players_stats/Jermaine Taylor.xlsx
@@ -358,7 +358,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AJ4"/>
+  <dimension ref="A1:AJ6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -552,7 +552,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>1982-83</t>
+          <t>2009-10</t>
         </is>
       </c>
       <c r="D2" t="n">
@@ -574,79 +574,79 @@
         </is>
       </c>
       <c r="H2" t="n">
-        <v>44</v>
+        <v>31</v>
       </c>
       <c r="I2" t="n">
+        <v>4</v>
+      </c>
+      <c r="J2" t="n">
+        <v>303</v>
+      </c>
+      <c r="K2" t="n">
+        <v>45</v>
+      </c>
+      <c r="L2" t="n">
+        <v>119</v>
+      </c>
+      <c r="M2" t="n">
+        <v>0.3779999999999999</v>
+      </c>
+      <c r="N2" t="n">
         <v>5</v>
       </c>
-      <c r="J2" t="n">
-        <v>774</v>
-      </c>
-      <c r="K2" t="n">
-        <v>64</v>
-      </c>
-      <c r="L2" t="n">
-        <v>160</v>
-      </c>
-      <c r="M2" t="n">
-        <v>0.4</v>
-      </c>
-      <c r="N2" t="n">
-        <v>0</v>
-      </c>
       <c r="O2" t="n">
-        <v>1</v>
+        <v>22</v>
       </c>
       <c r="P2" t="n">
-        <v>0</v>
+        <v>0.227</v>
       </c>
       <c r="Q2" t="n">
-        <v>64</v>
+        <v>40</v>
       </c>
       <c r="R2" t="n">
-        <v>159</v>
+        <v>97</v>
       </c>
       <c r="S2" t="n">
-        <v>0.403</v>
+        <v>0.412</v>
       </c>
       <c r="T2" t="n">
-        <v>0.4</v>
+        <v>0.399</v>
       </c>
       <c r="U2" t="n">
-        <v>30</v>
+        <v>33</v>
       </c>
       <c r="V2" t="n">
         <v>46</v>
       </c>
       <c r="W2" t="n">
-        <v>0.652</v>
+        <v>0.7170000000000001</v>
       </c>
       <c r="X2" t="n">
+        <v>21</v>
+      </c>
+      <c r="Y2" t="n">
         <v>25</v>
       </c>
-      <c r="Y2" t="n">
-        <v>53</v>
-      </c>
       <c r="Z2" t="n">
-        <v>78</v>
+        <v>46</v>
       </c>
       <c r="AA2" t="n">
-        <v>110</v>
+        <v>16</v>
       </c>
       <c r="AB2" t="n">
-        <v>40</v>
+        <v>10</v>
       </c>
       <c r="AC2" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD2" t="n">
+        <v>19</v>
+      </c>
+      <c r="AE2" t="n">
         <v>15</v>
       </c>
-      <c r="AD2" t="n">
-        <v>60</v>
-      </c>
-      <c r="AE2" t="n">
-        <v>82</v>
-      </c>
       <c r="AF2" t="n">
-        <v>158</v>
+        <v>128</v>
       </c>
       <c r="AG2" t="inlineStr">
         <is>
@@ -655,7 +655,7 @@
       </c>
       <c r="AH2" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 79 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AI2" t="inlineStr">
@@ -664,7 +664,7 @@
         </is>
       </c>
       <c r="AJ2" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="3">
@@ -676,15 +676,15 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>1986-87</t>
+          <t>2010-11</t>
         </is>
       </c>
       <c r="D3" t="n">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>DET</t>
+          <t>TOT</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
@@ -698,77 +698,79 @@
         </is>
       </c>
       <c r="H3" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="I3" t="n">
-        <v>0</v>
+        <v>8</v>
       </c>
       <c r="J3" t="n">
-        <v>44</v>
+        <v>483</v>
       </c>
       <c r="K3" t="n">
-        <v>6</v>
+        <v>94</v>
       </c>
       <c r="L3" t="n">
-        <v>10</v>
+        <v>196</v>
       </c>
       <c r="M3" t="n">
-        <v>0.6</v>
+        <v>0.48</v>
       </c>
       <c r="N3" t="n">
-        <v>0</v>
+        <v>14</v>
       </c>
       <c r="O3" t="n">
-        <v>0</v>
-      </c>
-      <c r="P3" t="inlineStr"/>
+        <v>45</v>
+      </c>
+      <c r="P3" t="n">
+        <v>0.311</v>
+      </c>
       <c r="Q3" t="n">
-        <v>6</v>
+        <v>80</v>
       </c>
       <c r="R3" t="n">
-        <v>10</v>
+        <v>151</v>
       </c>
       <c r="S3" t="n">
-        <v>0.6</v>
+        <v>0.53</v>
       </c>
       <c r="T3" t="n">
-        <v>0.6</v>
+        <v>0.515</v>
       </c>
       <c r="U3" t="n">
-        <v>9</v>
+        <v>21</v>
       </c>
       <c r="V3" t="n">
-        <v>10</v>
+        <v>28</v>
       </c>
       <c r="W3" t="n">
-        <v>0.9</v>
+        <v>0.75</v>
       </c>
       <c r="X3" t="n">
-        <v>1</v>
+        <v>26</v>
       </c>
       <c r="Y3" t="n">
-        <v>3</v>
+        <v>36</v>
       </c>
       <c r="Z3" t="n">
-        <v>4</v>
+        <v>62</v>
       </c>
       <c r="AA3" t="n">
-        <v>3</v>
+        <v>32</v>
       </c>
       <c r="AB3" t="n">
-        <v>2</v>
+        <v>14</v>
       </c>
       <c r="AC3" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AD3" t="n">
-        <v>8</v>
+        <v>46</v>
       </c>
       <c r="AE3" t="n">
-        <v>4</v>
+        <v>39</v>
       </c>
       <c r="AF3" t="n">
-        <v>21</v>
+        <v>223</v>
       </c>
       <c r="AG3" t="inlineStr">
         <is>
@@ -777,7 +779,7 @@
       </c>
       <c r="AH3" t="inlineStr">
         <is>
-          <t xml:space="preserve"> 79 </t>
+          <t xml:space="preserve"> 95 </t>
         </is>
       </c>
       <c r="AI3" t="inlineStr">
@@ -786,7 +788,7 @@
         </is>
       </c>
       <c r="AJ3" t="n">
-        <v>42</v>
+        <v>32</v>
       </c>
     </row>
     <row r="4">
@@ -798,113 +800,361 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="D4" t="n">
+        <v>24</v>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>HOU</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>8</v>
+      </c>
+      <c r="I4" t="n">
+        <v>0</v>
+      </c>
+      <c r="J4" t="n">
+        <v>77</v>
+      </c>
+      <c r="K4" t="n">
+        <v>16</v>
+      </c>
+      <c r="L4" t="n">
+        <v>32</v>
+      </c>
+      <c r="M4" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="N4" t="n">
+        <v>2</v>
+      </c>
+      <c r="O4" t="n">
+        <v>5</v>
+      </c>
+      <c r="P4" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q4" t="n">
+        <v>14</v>
+      </c>
+      <c r="R4" t="n">
+        <v>27</v>
+      </c>
+      <c r="S4" t="n">
+        <v>0.519</v>
+      </c>
+      <c r="T4" t="n">
+        <v>0.531</v>
+      </c>
+      <c r="U4" t="n">
+        <v>5</v>
+      </c>
+      <c r="V4" t="n">
+        <v>6</v>
+      </c>
+      <c r="W4" t="n">
+        <v>0.833</v>
+      </c>
+      <c r="X4" t="n">
+        <v>1</v>
+      </c>
+      <c r="Y4" t="n">
+        <v>8</v>
+      </c>
+      <c r="Z4" t="n">
+        <v>9</v>
+      </c>
+      <c r="AA4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AC4" t="n">
+        <v>2</v>
+      </c>
+      <c r="AD4" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>39</v>
+      </c>
+      <c r="AG4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 193</t>
+        </is>
+      </c>
+      <c r="AH4" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI4" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ4" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="n">
+        <v>3</v>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>2010-11</t>
+        </is>
+      </c>
+      <c r="D5" t="n">
+        <v>24</v>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>SAC</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>NBA</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>SG</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>26</v>
+      </c>
+      <c r="I5" t="n">
+        <v>8</v>
+      </c>
+      <c r="J5" t="n">
+        <v>406</v>
+      </c>
+      <c r="K5" t="n">
+        <v>78</v>
+      </c>
+      <c r="L5" t="n">
+        <v>164</v>
+      </c>
+      <c r="M5" t="n">
+        <v>0.476</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12</v>
+      </c>
+      <c r="O5" t="n">
+        <v>40</v>
+      </c>
+      <c r="P5" t="n">
+        <v>0.3</v>
+      </c>
+      <c r="Q5" t="n">
+        <v>66</v>
+      </c>
+      <c r="R5" t="n">
+        <v>124</v>
+      </c>
+      <c r="S5" t="n">
+        <v>0.532</v>
+      </c>
+      <c r="T5" t="n">
+        <v>0.512</v>
+      </c>
+      <c r="U5" t="n">
+        <v>16</v>
+      </c>
+      <c r="V5" t="n">
+        <v>22</v>
+      </c>
+      <c r="W5" t="n">
+        <v>0.727</v>
+      </c>
+      <c r="X5" t="n">
+        <v>25</v>
+      </c>
+      <c r="Y5" t="n">
+        <v>28</v>
+      </c>
+      <c r="Z5" t="n">
+        <v>53</v>
+      </c>
+      <c r="AA5" t="n">
+        <v>30</v>
+      </c>
+      <c r="AB5" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC5" t="n">
+        <v>3</v>
+      </c>
+      <c r="AD5" t="n">
+        <v>40</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>35</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>184</v>
+      </c>
+      <c r="AG5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 193</t>
+        </is>
+      </c>
+      <c r="AH5" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI5" t="inlineStr">
+        <is>
+          <t>Right</t>
+        </is>
+      </c>
+      <c r="AJ5" t="n">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="n">
+        <v>4</v>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
           <t>Career</t>
         </is>
       </c>
-      <c r="D4" t="inlineStr"/>
-      <c r="E4" t="inlineStr"/>
-      <c r="F4" t="inlineStr">
+      <c r="D6" t="inlineStr"/>
+      <c r="E6" t="inlineStr"/>
+      <c r="F6" t="inlineStr">
         <is>
           <t>NBA</t>
         </is>
       </c>
-      <c r="G4" t="inlineStr">
+      <c r="G6" t="inlineStr">
         <is>
           <t>SG</t>
         </is>
       </c>
-      <c r="H4" t="n">
-        <v>56</v>
-      </c>
-      <c r="I4" t="n">
-        <v>5</v>
-      </c>
-      <c r="J4" t="n">
-        <v>818</v>
-      </c>
-      <c r="K4" t="n">
-        <v>70</v>
-      </c>
-      <c r="L4" t="n">
-        <v>170</v>
-      </c>
-      <c r="M4" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="N4" t="n">
-        <v>0</v>
-      </c>
-      <c r="O4" t="n">
-        <v>1</v>
-      </c>
-      <c r="P4" t="n">
-        <v>0</v>
-      </c>
-      <c r="Q4" t="n">
-        <v>70</v>
-      </c>
-      <c r="R4" t="n">
-        <v>169</v>
-      </c>
-      <c r="S4" t="n">
-        <v>0.414</v>
-      </c>
-      <c r="T4" t="n">
-        <v>0.412</v>
-      </c>
-      <c r="U4" t="n">
-        <v>39</v>
-      </c>
-      <c r="V4" t="n">
-        <v>56</v>
-      </c>
-      <c r="W4" t="n">
-        <v>0.696</v>
-      </c>
-      <c r="X4" t="n">
-        <v>26</v>
-      </c>
-      <c r="Y4" t="n">
-        <v>56</v>
-      </c>
-      <c r="Z4" t="n">
-        <v>82</v>
-      </c>
-      <c r="AA4" t="n">
-        <v>113</v>
-      </c>
-      <c r="AB4" t="n">
-        <v>42</v>
-      </c>
-      <c r="AC4" t="n">
-        <v>16</v>
-      </c>
-      <c r="AD4" t="n">
-        <v>68</v>
-      </c>
-      <c r="AE4" t="n">
-        <v>86</v>
-      </c>
-      <c r="AF4" t="n">
-        <v>179</v>
-      </c>
-      <c r="AG4" t="inlineStr">
+      <c r="H6" t="n">
+        <v>65</v>
+      </c>
+      <c r="I6" t="n">
+        <v>12</v>
+      </c>
+      <c r="J6" t="n">
+        <v>786</v>
+      </c>
+      <c r="K6" t="n">
+        <v>139</v>
+      </c>
+      <c r="L6" t="n">
+        <v>315</v>
+      </c>
+      <c r="M6" t="n">
+        <v>0.441</v>
+      </c>
+      <c r="N6" t="n">
+        <v>19</v>
+      </c>
+      <c r="O6" t="n">
+        <v>67</v>
+      </c>
+      <c r="P6" t="n">
+        <v>0.284</v>
+      </c>
+      <c r="Q6" t="n">
+        <v>120</v>
+      </c>
+      <c r="R6" t="n">
+        <v>248</v>
+      </c>
+      <c r="S6" t="n">
+        <v>0.484</v>
+      </c>
+      <c r="T6" t="n">
+        <v>0.471</v>
+      </c>
+      <c r="U6" t="n">
+        <v>54</v>
+      </c>
+      <c r="V6" t="n">
+        <v>74</v>
+      </c>
+      <c r="W6" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="X6" t="n">
+        <v>47</v>
+      </c>
+      <c r="Y6" t="n">
+        <v>61</v>
+      </c>
+      <c r="Z6" t="n">
+        <v>108</v>
+      </c>
+      <c r="AA6" t="n">
+        <v>48</v>
+      </c>
+      <c r="AB6" t="n">
+        <v>24</v>
+      </c>
+      <c r="AC6" t="n">
+        <v>8</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>65</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>54</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>351</v>
+      </c>
+      <c r="AG6" t="inlineStr">
         <is>
           <t xml:space="preserve"> 193</t>
         </is>
       </c>
-      <c r="AH4" t="inlineStr">
-        <is>
-          <t xml:space="preserve"> 79 </t>
-        </is>
-      </c>
-      <c r="AI4" t="inlineStr">
+      <c r="AH6" t="inlineStr">
+        <is>
+          <t xml:space="preserve"> 95 </t>
+        </is>
+      </c>
+      <c r="AI6" t="inlineStr">
         <is>
           <t>Right</t>
         </is>
       </c>
-      <c r="AJ4" t="n">
-        <v>42</v>
+      <c r="AJ6" t="n">
+        <v>32</v>
       </c>
     </row>
   </sheetData>
